--- a/subnetting.xlsx
+++ b/subnetting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/subnetting.xlsx
+++ b/subnetting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
   <si>
     <t>CS</t>
   </si>
@@ -104,34 +104,16 @@
     <t>/29</t>
   </si>
   <si>
-    <t>192.168.1.60</t>
-  </si>
-  <si>
-    <t>192.168.1.61</t>
-  </si>
-  <si>
     <t>192.168.1.62</t>
   </si>
   <si>
     <t>192.168.1.63</t>
   </si>
   <si>
-    <t>192.168.1.76</t>
-  </si>
-  <si>
-    <t>192.168.1.77</t>
-  </si>
-  <si>
     <t>192.168.1.78</t>
   </si>
   <si>
     <t>192.168.1.79</t>
-  </si>
-  <si>
-    <t>192.168.1.84</t>
-  </si>
-  <si>
-    <t>192.168.1.85</t>
   </si>
   <si>
     <t>Total</t>
@@ -553,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -584,22 +566,22 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -611,13 +593,13 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -628,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5"/>
       <c r="H3">
@@ -664,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -676,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -688,20 +670,20 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <f>SUM(23,10,8,7,4)</f>
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -722,10 +704,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -785,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -802,16 +784,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
@@ -825,16 +807,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>25</v>
@@ -888,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -899,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -960,10 +942,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>15</v>
@@ -974,10 +956,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>25</v>
@@ -1028,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -1039,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>25</v>
